--- a/auto_shift/data_sample.xlsx
+++ b/auto_shift/data_sample.xlsx
@@ -4296,7 +4296,7 @@
   <dimension ref="A1:E872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E2:E74"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/auto_shift/data_sample.xlsx
+++ b/auto_shift/data_sample.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41540" yWindow="220" windowWidth="33520" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="曜日" sheetId="1" r:id="rId1"/>
     <sheet name="従業員" sheetId="4" r:id="rId2"/>
     <sheet name="データセット(回答判定)" sheetId="3" r:id="rId3"/>
+    <sheet name="データセット(5月分)" sheetId="6" r:id="rId4"/>
+    <sheet name="5月シフト表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -312,6 +314,59 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>シフト表</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1296">
+  <cellStyleXfs count="1370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1674,8 +1729,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1687,8 +1816,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1296">
+  <cellStyles count="1370">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -2284,6 +2416,43 @@
     <cellStyle name="ハイパーリンク" xfId="1290" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1292" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="1368" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -2985,6 +3154,43 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="1291" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1293" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1369" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3315,7 +3521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -3333,7 +3541,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -3342,7 +3550,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -3351,7 +3559,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -3360,7 +3568,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -3369,7 +3577,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -3378,7 +3586,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -3387,7 +3595,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -3547,7 +3755,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="str">
-        <f>"{ id: " &amp;A2&amp;", answerd: "&amp;D2&amp;", text: """ &amp; SUBSTITUTE(B2, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" ref="E2:E33" si="0">"{ id: " &amp;A2&amp;", answerd: "&amp;D2&amp;", text: """ &amp; SUBSTITUTE(B2, CHAR(13), "\n") &amp; """ },"</f>
         <v>{ id: 1, answerd: , text: "山田" },</v>
       </c>
     </row>
@@ -3561,7 +3769,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
       <c r="E3" t="str">
-        <f>"{ id: " &amp;A3&amp;", answerd: "&amp;D3&amp;", text: """ &amp; SUBSTITUTE(B3, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: 2, answerd: , text: "田中" },</v>
       </c>
     </row>
@@ -3575,7 +3783,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
       <c r="E4" t="str">
-        <f>"{ id: " &amp;A4&amp;", answerd: "&amp;D4&amp;", text: """ &amp; SUBSTITUTE(B4, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: 3, answerd: , text: "佐藤" },</v>
       </c>
     </row>
@@ -3589,7 +3797,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" t="str">
-        <f>"{ id: " &amp;A5&amp;", answerd: "&amp;D5&amp;", text: """ &amp; SUBSTITUTE(B5, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: 4, answerd: , text: "高橋" },</v>
       </c>
     </row>
@@ -3598,7 +3806,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" t="str">
-        <f>"{ id: " &amp;A6&amp;", answerd: "&amp;D6&amp;", text: """ &amp; SUBSTITUTE(B6, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3607,7 +3815,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" t="str">
-        <f>"{ id: " &amp;A7&amp;", answerd: "&amp;D7&amp;", text: """ &amp; SUBSTITUTE(B7, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3616,7 +3824,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" t="str">
-        <f>"{ id: " &amp;A8&amp;", answerd: "&amp;D8&amp;", text: """ &amp; SUBSTITUTE(B8, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3625,7 +3833,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" t="str">
-        <f>"{ id: " &amp;A9&amp;", answerd: "&amp;D9&amp;", text: """ &amp; SUBSTITUTE(B9, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3634,7 +3842,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" t="str">
-        <f>"{ id: " &amp;A10&amp;", answerd: "&amp;D10&amp;", text: """ &amp; SUBSTITUTE(B10, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3643,7 +3851,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" t="str">
-        <f>"{ id: " &amp;A11&amp;", answerd: "&amp;D11&amp;", text: """ &amp; SUBSTITUTE(B11, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3652,7 +3860,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" t="str">
-        <f>"{ id: " &amp;A12&amp;", answerd: "&amp;D12&amp;", text: """ &amp; SUBSTITUTE(B12, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3661,7 +3869,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" t="str">
-        <f>"{ id: " &amp;A13&amp;", answerd: "&amp;D13&amp;", text: """ &amp; SUBSTITUTE(B13, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3670,7 +3878,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" t="str">
-        <f>"{ id: " &amp;A14&amp;", answerd: "&amp;D14&amp;", text: """ &amp; SUBSTITUTE(B14, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3679,7 +3887,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" t="str">
-        <f>"{ id: " &amp;A15&amp;", answerd: "&amp;D15&amp;", text: """ &amp; SUBSTITUTE(B15, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3688,7 +3896,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" t="str">
-        <f>"{ id: " &amp;A16&amp;", answerd: "&amp;D16&amp;", text: """ &amp; SUBSTITUTE(B16, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3697,7 +3905,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" t="str">
-        <f>"{ id: " &amp;A17&amp;", answerd: "&amp;D17&amp;", text: """ &amp; SUBSTITUTE(B17, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3706,7 +3914,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" t="str">
-        <f>"{ id: " &amp;A18&amp;", answerd: "&amp;D18&amp;", text: """ &amp; SUBSTITUTE(B18, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3714,7 +3922,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" t="str">
-        <f>"{ id: " &amp;A19&amp;", answerd: "&amp;D19&amp;", text: """ &amp; SUBSTITUTE(B19, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3722,7 +3930,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" t="str">
-        <f>"{ id: " &amp;A20&amp;", answerd: "&amp;D20&amp;", text: """ &amp; SUBSTITUTE(B20, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3730,7 +3938,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" t="str">
-        <f>"{ id: " &amp;A21&amp;", answerd: "&amp;D21&amp;", text: """ &amp; SUBSTITUTE(B21, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3738,7 +3946,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" t="str">
-        <f>"{ id: " &amp;A22&amp;", answerd: "&amp;D22&amp;", text: """ &amp; SUBSTITUTE(B22, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3746,7 +3954,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" t="str">
-        <f>"{ id: " &amp;A23&amp;", answerd: "&amp;D23&amp;", text: """ &amp; SUBSTITUTE(B23, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3754,7 +3962,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="6"/>
       <c r="E24" t="str">
-        <f>"{ id: " &amp;A24&amp;", answerd: "&amp;D24&amp;", text: """ &amp; SUBSTITUTE(B24, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3762,7 +3970,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" t="str">
-        <f>"{ id: " &amp;A25&amp;", answerd: "&amp;D25&amp;", text: """ &amp; SUBSTITUTE(B25, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3771,7 +3979,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="6"/>
       <c r="E26" t="str">
-        <f>"{ id: " &amp;A26&amp;", answerd: "&amp;D26&amp;", text: """ &amp; SUBSTITUTE(B26, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3780,7 +3988,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="6"/>
       <c r="E27" t="str">
-        <f>"{ id: " &amp;A27&amp;", answerd: "&amp;D27&amp;", text: """ &amp; SUBSTITUTE(B27, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3789,7 +3997,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="6"/>
       <c r="E28" t="str">
-        <f>"{ id: " &amp;A28&amp;", answerd: "&amp;D28&amp;", text: """ &amp; SUBSTITUTE(B28, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3798,7 +4006,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" t="str">
-        <f>"{ id: " &amp;A29&amp;", answerd: "&amp;D29&amp;", text: """ &amp; SUBSTITUTE(B29, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3807,7 +4015,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="6"/>
       <c r="E30" t="str">
-        <f>"{ id: " &amp;A30&amp;", answerd: "&amp;D30&amp;", text: """ &amp; SUBSTITUTE(B30, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3816,7 +4024,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" t="str">
-        <f>"{ id: " &amp;A31&amp;", answerd: "&amp;D31&amp;", text: """ &amp; SUBSTITUTE(B31, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3825,7 +4033,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="6"/>
       <c r="E32" t="str">
-        <f>"{ id: " &amp;A32&amp;", answerd: "&amp;D32&amp;", text: """ &amp; SUBSTITUTE(B32, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3834,7 +4042,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="6"/>
       <c r="E33" t="str">
-        <f>"{ id: " &amp;A33&amp;", answerd: "&amp;D33&amp;", text: """ &amp; SUBSTITUTE(B33, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="0"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3843,7 +4051,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="6"/>
       <c r="E34" t="str">
-        <f>"{ id: " &amp;A34&amp;", answerd: "&amp;D34&amp;", text: """ &amp; SUBSTITUTE(B34, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" ref="E34:E65" si="1">"{ id: " &amp;A34&amp;", answerd: "&amp;D34&amp;", text: """ &amp; SUBSTITUTE(B34, CHAR(13), "\n") &amp; """ },"</f>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3852,7 +4060,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="6"/>
       <c r="E35" t="str">
-        <f>"{ id: " &amp;A35&amp;", answerd: "&amp;D35&amp;", text: """ &amp; SUBSTITUTE(B35, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3861,7 +4069,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="6"/>
       <c r="E36" t="str">
-        <f>"{ id: " &amp;A36&amp;", answerd: "&amp;D36&amp;", text: """ &amp; SUBSTITUTE(B36, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3870,7 +4078,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" t="str">
-        <f>"{ id: " &amp;A37&amp;", answerd: "&amp;D37&amp;", text: """ &amp; SUBSTITUTE(B37, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3879,7 +4087,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="6"/>
       <c r="E38" t="str">
-        <f>"{ id: " &amp;A38&amp;", answerd: "&amp;D38&amp;", text: """ &amp; SUBSTITUTE(B38, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3888,7 +4096,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="6"/>
       <c r="E39" t="str">
-        <f>"{ id: " &amp;A39&amp;", answerd: "&amp;D39&amp;", text: """ &amp; SUBSTITUTE(B39, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3897,7 +4105,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" t="str">
-        <f>"{ id: " &amp;A40&amp;", answerd: "&amp;D40&amp;", text: """ &amp; SUBSTITUTE(B40, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3906,7 +4114,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
       <c r="E41" t="str">
-        <f>"{ id: " &amp;A41&amp;", answerd: "&amp;D41&amp;", text: """ &amp; SUBSTITUTE(B41, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3915,7 +4123,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
       <c r="E42" t="str">
-        <f>"{ id: " &amp;A42&amp;", answerd: "&amp;D42&amp;", text: """ &amp; SUBSTITUTE(B42, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3924,7 +4132,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
       <c r="E43" t="str">
-        <f>"{ id: " &amp;A43&amp;", answerd: "&amp;D43&amp;", text: """ &amp; SUBSTITUTE(B43, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3933,7 +4141,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
       <c r="E44" t="str">
-        <f>"{ id: " &amp;A44&amp;", answerd: "&amp;D44&amp;", text: """ &amp; SUBSTITUTE(B44, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3942,7 +4150,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" t="str">
-        <f>"{ id: " &amp;A45&amp;", answerd: "&amp;D45&amp;", text: """ &amp; SUBSTITUTE(B45, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3951,7 +4159,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="6"/>
       <c r="E46" t="str">
-        <f>"{ id: " &amp;A46&amp;", answerd: "&amp;D46&amp;", text: """ &amp; SUBSTITUTE(B46, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3960,7 +4168,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="6"/>
       <c r="E47" t="str">
-        <f>"{ id: " &amp;A47&amp;", answerd: "&amp;D47&amp;", text: """ &amp; SUBSTITUTE(B47, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3969,7 +4177,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="6"/>
       <c r="E48" t="str">
-        <f>"{ id: " &amp;A48&amp;", answerd: "&amp;D48&amp;", text: """ &amp; SUBSTITUTE(B48, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3978,7 +4186,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="6"/>
       <c r="E49" t="str">
-        <f>"{ id: " &amp;A49&amp;", answerd: "&amp;D49&amp;", text: """ &amp; SUBSTITUTE(B49, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3987,7 +4195,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="6"/>
       <c r="E50" t="str">
-        <f>"{ id: " &amp;A50&amp;", answerd: "&amp;D50&amp;", text: """ &amp; SUBSTITUTE(B50, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -3996,7 +4204,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="6"/>
       <c r="E51" t="str">
-        <f>"{ id: " &amp;A51&amp;", answerd: "&amp;D51&amp;", text: """ &amp; SUBSTITUTE(B51, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4005,7 +4213,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="6"/>
       <c r="E52" t="str">
-        <f>"{ id: " &amp;A52&amp;", answerd: "&amp;D52&amp;", text: """ &amp; SUBSTITUTE(B52, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4014,7 +4222,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="6"/>
       <c r="E53" t="str">
-        <f>"{ id: " &amp;A53&amp;", answerd: "&amp;D53&amp;", text: """ &amp; SUBSTITUTE(B53, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4023,7 +4231,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="6"/>
       <c r="E54" t="str">
-        <f>"{ id: " &amp;A54&amp;", answerd: "&amp;D54&amp;", text: """ &amp; SUBSTITUTE(B54, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4032,7 +4240,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
       <c r="E55" t="str">
-        <f>"{ id: " &amp;A55&amp;", answerd: "&amp;D55&amp;", text: """ &amp; SUBSTITUTE(B55, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4041,7 +4249,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="6"/>
       <c r="E56" t="str">
-        <f>"{ id: " &amp;A56&amp;", answerd: "&amp;D56&amp;", text: """ &amp; SUBSTITUTE(B56, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4050,7 +4258,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="6"/>
       <c r="E57" t="str">
-        <f>"{ id: " &amp;A57&amp;", answerd: "&amp;D57&amp;", text: """ &amp; SUBSTITUTE(B57, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4059,7 +4267,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="6"/>
       <c r="E58" t="str">
-        <f>"{ id: " &amp;A58&amp;", answerd: "&amp;D58&amp;", text: """ &amp; SUBSTITUTE(B58, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4068,7 +4276,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="6"/>
       <c r="E59" t="str">
-        <f>"{ id: " &amp;A59&amp;", answerd: "&amp;D59&amp;", text: """ &amp; SUBSTITUTE(B59, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4077,7 +4285,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="6"/>
       <c r="E60" t="str">
-        <f>"{ id: " &amp;A60&amp;", answerd: "&amp;D60&amp;", text: """ &amp; SUBSTITUTE(B60, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4086,7 +4294,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="6"/>
       <c r="E61" t="str">
-        <f>"{ id: " &amp;A61&amp;", answerd: "&amp;D61&amp;", text: """ &amp; SUBSTITUTE(B61, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4095,7 +4303,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="6"/>
       <c r="E62" t="str">
-        <f>"{ id: " &amp;A62&amp;", answerd: "&amp;D62&amp;", text: """ &amp; SUBSTITUTE(B62, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4104,7 +4312,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="6"/>
       <c r="E63" t="str">
-        <f>"{ id: " &amp;A63&amp;", answerd: "&amp;D63&amp;", text: """ &amp; SUBSTITUTE(B63, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4113,7 +4321,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="6"/>
       <c r="E64" t="str">
-        <f>"{ id: " &amp;A64&amp;", answerd: "&amp;D64&amp;", text: """ &amp; SUBSTITUTE(B64, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4122,7 +4330,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" t="str">
-        <f>"{ id: " &amp;A65&amp;", answerd: "&amp;D65&amp;", text: """ &amp; SUBSTITUTE(B65, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="1"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4131,7 +4339,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
       <c r="E66" t="str">
-        <f>"{ id: " &amp;A66&amp;", answerd: "&amp;D66&amp;", text: """ &amp; SUBSTITUTE(B66, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" ref="E66:E97" si="2">"{ id: " &amp;A66&amp;", answerd: "&amp;D66&amp;", text: """ &amp; SUBSTITUTE(B66, CHAR(13), "\n") &amp; """ },"</f>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4140,7 +4348,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="6"/>
       <c r="E67" t="str">
-        <f>"{ id: " &amp;A67&amp;", answerd: "&amp;D67&amp;", text: """ &amp; SUBSTITUTE(B67, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4149,7 +4357,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="6"/>
       <c r="E68" t="str">
-        <f>"{ id: " &amp;A68&amp;", answerd: "&amp;D68&amp;", text: """ &amp; SUBSTITUTE(B68, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4158,7 +4366,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="6"/>
       <c r="E69" t="str">
-        <f>"{ id: " &amp;A69&amp;", answerd: "&amp;D69&amp;", text: """ &amp; SUBSTITUTE(B69, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4167,7 +4375,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="6"/>
       <c r="E70" t="str">
-        <f>"{ id: " &amp;A70&amp;", answerd: "&amp;D70&amp;", text: """ &amp; SUBSTITUTE(B70, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4176,7 +4384,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="6"/>
       <c r="E71" t="str">
-        <f>"{ id: " &amp;A71&amp;", answerd: "&amp;D71&amp;", text: """ &amp; SUBSTITUTE(B71, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4185,7 +4393,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="6"/>
       <c r="E72" t="str">
-        <f>"{ id: " &amp;A72&amp;", answerd: "&amp;D72&amp;", text: """ &amp; SUBSTITUTE(B72, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4194,7 +4402,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="6"/>
       <c r="E73" t="str">
-        <f>"{ id: " &amp;A73&amp;", answerd: "&amp;D73&amp;", text: """ &amp; SUBSTITUTE(B73, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4203,7 +4411,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="6"/>
       <c r="E74" t="str">
-        <f>"{ id: " &amp;A74&amp;", answerd: "&amp;D74&amp;", text: """ &amp; SUBSTITUTE(B74, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4212,7 +4420,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="6"/>
       <c r="E75" t="str">
-        <f>"{ id: " &amp;A75&amp;", answerd: "&amp;D75&amp;", text: """ &amp; SUBSTITUTE(B75, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4221,7 +4429,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="6"/>
       <c r="E76" t="str">
-        <f>"{ id: " &amp;A76&amp;", answerd: "&amp;D76&amp;", text: """ &amp; SUBSTITUTE(B76, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4230,7 +4438,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="6"/>
       <c r="E77" t="str">
-        <f>"{ id: " &amp;A77&amp;", answerd: "&amp;D77&amp;", text: """ &amp; SUBSTITUTE(B77, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4239,7 +4447,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="6"/>
       <c r="E78" t="str">
-        <f>"{ id: " &amp;A78&amp;", answerd: "&amp;D78&amp;", text: """ &amp; SUBSTITUTE(B78, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4248,7 +4456,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="6"/>
       <c r="E79" t="str">
-        <f>"{ id: " &amp;A79&amp;", answerd: "&amp;D79&amp;", text: """ &amp; SUBSTITUTE(B79, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4257,7 +4465,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="6"/>
       <c r="E80" t="str">
-        <f>"{ id: " &amp;A80&amp;", answerd: "&amp;D80&amp;", text: """ &amp; SUBSTITUTE(B80, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4266,7 +4474,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="6"/>
       <c r="E81" t="str">
-        <f>"{ id: " &amp;A81&amp;", answerd: "&amp;D81&amp;", text: """ &amp; SUBSTITUTE(B81, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4275,7 +4483,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
       <c r="E82" t="str">
-        <f>"{ id: " &amp;A82&amp;", answerd: "&amp;D82&amp;", text: """ &amp; SUBSTITUTE(B82, CHAR(13), "\n") &amp; """ },"</f>
+        <f t="shared" si="2"/>
         <v>{ id: , answerd: , text: "" },</v>
       </c>
     </row>
@@ -4295,8 +4503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E872"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8524,4 +8732,5789 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E872"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"db.insert({'employee_id': "&amp;B2&amp;", 'day_of_week':"&amp;A2&amp;", 'attend': "&amp;C2&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"db.insert({'employee_id': "&amp;B3&amp;", 'day_of_week':"&amp;A3&amp;", 'attend': "&amp;C3&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"db.insert({'employee_id': "&amp;B4&amp;", 'day_of_week':"&amp;A4&amp;", 'attend': "&amp;C4&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"db.insert({'employee_id': "&amp;B5&amp;", 'day_of_week':"&amp;A5&amp;", 'attend': "&amp;C5&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"db.insert({'employee_id': "&amp;B6&amp;", 'day_of_week':"&amp;A6&amp;", 'attend': "&amp;C6&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"db.insert({'employee_id': "&amp;B7&amp;", 'day_of_week':"&amp;A7&amp;", 'attend': "&amp;C7&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"db.insert({'employee_id': "&amp;B8&amp;", 'day_of_week':"&amp;A8&amp;", 'attend': "&amp;C8&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"db.insert({'employee_id': "&amp;B9&amp;", 'day_of_week':"&amp;A9&amp;", 'attend': "&amp;C9&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"db.insert({'employee_id': "&amp;B10&amp;", 'day_of_week':"&amp;A10&amp;", 'attend': "&amp;C10&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"db.insert({'employee_id': "&amp;B11&amp;", 'day_of_week':"&amp;A11&amp;", 'attend': "&amp;C11&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"db.insert({'employee_id': "&amp;B12&amp;", 'day_of_week':"&amp;A12&amp;", 'attend': "&amp;C12&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"db.insert({'employee_id': "&amp;B13&amp;", 'day_of_week':"&amp;A13&amp;", 'attend': "&amp;C13&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"db.insert({'employee_id': "&amp;B14&amp;", 'day_of_week':"&amp;A14&amp;", 'attend': "&amp;C14&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"db.insert({'employee_id': "&amp;B15&amp;", 'day_of_week':"&amp;A15&amp;", 'attend': "&amp;C15&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"db.insert({'employee_id': "&amp;B16&amp;", 'day_of_week':"&amp;A16&amp;", 'attend': "&amp;C16&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f>"db.insert({'employee_id': "&amp;B17&amp;", 'day_of_week':"&amp;A17&amp;", 'attend': "&amp;C17&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"db.insert({'employee_id': "&amp;B18&amp;", 'day_of_week':"&amp;A18&amp;", 'attend': "&amp;C18&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"db.insert({'employee_id': "&amp;B19&amp;", 'day_of_week':"&amp;A19&amp;", 'attend': "&amp;C19&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"db.insert({'employee_id': "&amp;B20&amp;", 'day_of_week':"&amp;A20&amp;", 'attend': "&amp;C20&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"db.insert({'employee_id': "&amp;B21&amp;", 'day_of_week':"&amp;A21&amp;", 'attend': "&amp;C21&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"db.insert({'employee_id': "&amp;B22&amp;", 'day_of_week':"&amp;A22&amp;", 'attend': "&amp;C22&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f>"db.insert({'employee_id': "&amp;B23&amp;", 'day_of_week':"&amp;A23&amp;", 'attend': "&amp;C23&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"db.insert({'employee_id': "&amp;B24&amp;", 'day_of_week':"&amp;A24&amp;", 'attend': "&amp;C24&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f>"db.insert({'employee_id': "&amp;B25&amp;", 'day_of_week':"&amp;A25&amp;", 'attend': "&amp;C25&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f>"db.insert({'employee_id': "&amp;B26&amp;", 'day_of_week':"&amp;A26&amp;", 'attend': "&amp;C26&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" t="str">
+        <f>"db.insert({'employee_id': "&amp;B27&amp;", 'day_of_week':"&amp;A27&amp;", 'attend': "&amp;C27&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>"db.insert({'employee_id': "&amp;B28&amp;", 'day_of_week':"&amp;A28&amp;", 'attend': "&amp;C28&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" t="str">
+        <f>"db.insert({'employee_id': "&amp;B29&amp;", 'day_of_week':"&amp;A29&amp;", 'attend': "&amp;C29&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" t="str">
+        <f>"db.insert({'employee_id': "&amp;B30&amp;", 'day_of_week':"&amp;A30&amp;", 'attend': "&amp;C30&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" t="str">
+        <f>"db.insert({'employee_id': "&amp;B31&amp;", 'day_of_week':"&amp;A31&amp;", 'attend': "&amp;C31&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':1, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" t="str">
+        <f>"db.insert({'employee_id': "&amp;B32&amp;", 'day_of_week':"&amp;A32&amp;", 'attend': "&amp;C32&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':1, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"db.insert({'employee_id': "&amp;B33&amp;", 'day_of_week':"&amp;A33&amp;", 'attend': "&amp;C33&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f>"db.insert({'employee_id': "&amp;B34&amp;", 'day_of_week':"&amp;A34&amp;", 'attend': "&amp;C34&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f>"db.insert({'employee_id': "&amp;B35&amp;", 'day_of_week':"&amp;A35&amp;", 'attend': "&amp;C35&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f>"db.insert({'employee_id': "&amp;B36&amp;", 'day_of_week':"&amp;A36&amp;", 'attend': "&amp;C36&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f>"db.insert({'employee_id': "&amp;B37&amp;", 'day_of_week':"&amp;A37&amp;", 'attend': "&amp;C37&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f>"db.insert({'employee_id': "&amp;B38&amp;", 'day_of_week':"&amp;A38&amp;", 'attend': "&amp;C38&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f>"db.insert({'employee_id': "&amp;B39&amp;", 'day_of_week':"&amp;A39&amp;", 'attend': "&amp;C39&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="str">
+        <f>"db.insert({'employee_id': "&amp;B40&amp;", 'day_of_week':"&amp;A40&amp;", 'attend': "&amp;C40&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <f>"db.insert({'employee_id': "&amp;B41&amp;", 'day_of_week':"&amp;A41&amp;", 'attend': "&amp;C41&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <f>"db.insert({'employee_id': "&amp;B42&amp;", 'day_of_week':"&amp;A42&amp;", 'attend': "&amp;C42&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f>"db.insert({'employee_id': "&amp;B43&amp;", 'day_of_week':"&amp;A43&amp;", 'attend': "&amp;C43&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f>"db.insert({'employee_id': "&amp;B44&amp;", 'day_of_week':"&amp;A44&amp;", 'attend': "&amp;C44&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <f>"db.insert({'employee_id': "&amp;B45&amp;", 'day_of_week':"&amp;A45&amp;", 'attend': "&amp;C45&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <f>"db.insert({'employee_id': "&amp;B46&amp;", 'day_of_week':"&amp;A46&amp;", 'attend': "&amp;C46&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f>"db.insert({'employee_id': "&amp;B47&amp;", 'day_of_week':"&amp;A47&amp;", 'attend': "&amp;C47&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <f>"db.insert({'employee_id': "&amp;B48&amp;", 'day_of_week':"&amp;A48&amp;", 'attend': "&amp;C48&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f>"db.insert({'employee_id': "&amp;B49&amp;", 'day_of_week':"&amp;A49&amp;", 'attend': "&amp;C49&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f>"db.insert({'employee_id': "&amp;B50&amp;", 'day_of_week':"&amp;A50&amp;", 'attend': "&amp;C50&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f>"db.insert({'employee_id': "&amp;B51&amp;", 'day_of_week':"&amp;A51&amp;", 'attend': "&amp;C51&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <f>"db.insert({'employee_id': "&amp;B52&amp;", 'day_of_week':"&amp;A52&amp;", 'attend': "&amp;C52&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <f>"db.insert({'employee_id': "&amp;B53&amp;", 'day_of_week':"&amp;A53&amp;", 'attend': "&amp;C53&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <f>"db.insert({'employee_id': "&amp;B54&amp;", 'day_of_week':"&amp;A54&amp;", 'attend': "&amp;C54&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f>"db.insert({'employee_id': "&amp;B55&amp;", 'day_of_week':"&amp;A55&amp;", 'attend': "&amp;C55&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f>"db.insert({'employee_id': "&amp;B56&amp;", 'day_of_week':"&amp;A56&amp;", 'attend': "&amp;C56&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f>"db.insert({'employee_id': "&amp;B57&amp;", 'day_of_week':"&amp;A57&amp;", 'attend': "&amp;C57&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f>"db.insert({'employee_id': "&amp;B58&amp;", 'day_of_week':"&amp;A58&amp;", 'attend': "&amp;C58&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f>"db.insert({'employee_id': "&amp;B59&amp;", 'day_of_week':"&amp;A59&amp;", 'attend': "&amp;C59&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':2, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <f>"db.insert({'employee_id': "&amp;B60&amp;", 'day_of_week':"&amp;A60&amp;", 'attend': "&amp;C60&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f>"db.insert({'employee_id': "&amp;B61&amp;", 'day_of_week':"&amp;A61&amp;", 'attend': "&amp;C61&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f>"db.insert({'employee_id': "&amp;B62&amp;", 'day_of_week':"&amp;A62&amp;", 'attend': "&amp;C62&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f>"db.insert({'employee_id': "&amp;B63&amp;", 'day_of_week':"&amp;A63&amp;", 'attend': "&amp;C63&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':2, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" s="4">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <f>"db.insert({'employee_id': "&amp;B64&amp;", 'day_of_week':"&amp;A64&amp;", 'attend': "&amp;C64&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f>"db.insert({'employee_id': "&amp;B65&amp;", 'day_of_week':"&amp;A65&amp;", 'attend': "&amp;C65&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <f>"db.insert({'employee_id': "&amp;B66&amp;", 'day_of_week':"&amp;A66&amp;", 'attend': "&amp;C66&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f>"db.insert({'employee_id': "&amp;B67&amp;", 'day_of_week':"&amp;A67&amp;", 'attend': "&amp;C67&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f>"db.insert({'employee_id': "&amp;B68&amp;", 'day_of_week':"&amp;A68&amp;", 'attend': "&amp;C68&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f>"db.insert({'employee_id': "&amp;B69&amp;", 'day_of_week':"&amp;A69&amp;", 'attend': "&amp;C69&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" s="4">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f>"db.insert({'employee_id': "&amp;B70&amp;", 'day_of_week':"&amp;A70&amp;", 'attend': "&amp;C70&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f>"db.insert({'employee_id': "&amp;B71&amp;", 'day_of_week':"&amp;A71&amp;", 'attend': "&amp;C71&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f>"db.insert({'employee_id': "&amp;B72&amp;", 'day_of_week':"&amp;A72&amp;", 'attend': "&amp;C72&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f>"db.insert({'employee_id': "&amp;B73&amp;", 'day_of_week':"&amp;A73&amp;", 'attend': "&amp;C73&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f>"db.insert({'employee_id': "&amp;B74&amp;", 'day_of_week':"&amp;A74&amp;", 'attend': "&amp;C74&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f>"db.insert({'employee_id': "&amp;B75&amp;", 'day_of_week':"&amp;A75&amp;", 'attend': "&amp;C75&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f>"db.insert({'employee_id': "&amp;B76&amp;", 'day_of_week':"&amp;A76&amp;", 'attend': "&amp;C76&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f>"db.insert({'employee_id': "&amp;B77&amp;", 'day_of_week':"&amp;A77&amp;", 'attend': "&amp;C77&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <f>"db.insert({'employee_id': "&amp;B78&amp;", 'day_of_week':"&amp;A78&amp;", 'attend': "&amp;C78&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f>"db.insert({'employee_id': "&amp;B79&amp;", 'day_of_week':"&amp;A79&amp;", 'attend': "&amp;C79&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f>"db.insert({'employee_id': "&amp;B80&amp;", 'day_of_week':"&amp;A80&amp;", 'attend': "&amp;C80&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f>"db.insert({'employee_id': "&amp;B81&amp;", 'day_of_week':"&amp;A81&amp;", 'attend': "&amp;C81&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" s="4">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f>"db.insert({'employee_id': "&amp;B82&amp;", 'day_of_week':"&amp;A82&amp;", 'attend': "&amp;C82&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" s="4">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f>"db.insert({'employee_id': "&amp;B83&amp;", 'day_of_week':"&amp;A83&amp;", 'attend': "&amp;C83&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" s="4">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <f>"db.insert({'employee_id': "&amp;B84&amp;", 'day_of_week':"&amp;A84&amp;", 'attend': "&amp;C84&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <f>"db.insert({'employee_id': "&amp;B85&amp;", 'day_of_week':"&amp;A85&amp;", 'attend': "&amp;C85&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f>"db.insert({'employee_id': "&amp;B86&amp;", 'day_of_week':"&amp;A86&amp;", 'attend': "&amp;C86&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f>"db.insert({'employee_id': "&amp;B87&amp;", 'day_of_week':"&amp;A87&amp;", 'attend': "&amp;C87&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f>"db.insert({'employee_id': "&amp;B88&amp;", 'day_of_week':"&amp;A88&amp;", 'attend': "&amp;C88&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" s="4">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <f>"db.insert({'employee_id': "&amp;B89&amp;", 'day_of_week':"&amp;A89&amp;", 'attend': "&amp;C89&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" s="4">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <f>"db.insert({'employee_id': "&amp;B90&amp;", 'day_of_week':"&amp;A90&amp;", 'attend': "&amp;C90&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" s="4">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f>"db.insert({'employee_id': "&amp;B91&amp;", 'day_of_week':"&amp;A91&amp;", 'attend': "&amp;C91&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" s="4">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f>"db.insert({'employee_id': "&amp;B92&amp;", 'day_of_week':"&amp;A92&amp;", 'attend': "&amp;C92&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f>"db.insert({'employee_id': "&amp;B93&amp;", 'day_of_week':"&amp;A93&amp;", 'attend': "&amp;C93&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':3, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <f>"db.insert({'employee_id': "&amp;B94&amp;", 'day_of_week':"&amp;A94&amp;", 'attend': "&amp;C94&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':3, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f>"db.insert({'employee_id': "&amp;B95&amp;", 'day_of_week':"&amp;A95&amp;", 'attend': "&amp;C95&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f>"db.insert({'employee_id': "&amp;B96&amp;", 'day_of_week':"&amp;A96&amp;", 'attend': "&amp;C96&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
+        <f>"db.insert({'employee_id': "&amp;B97&amp;", 'day_of_week':"&amp;A97&amp;", 'attend': "&amp;C97&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <f>"db.insert({'employee_id': "&amp;B98&amp;", 'day_of_week':"&amp;A98&amp;", 'attend': "&amp;C98&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f>"db.insert({'employee_id': "&amp;B99&amp;", 'day_of_week':"&amp;A99&amp;", 'attend': "&amp;C99&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f>"db.insert({'employee_id': "&amp;B100&amp;", 'day_of_week':"&amp;A100&amp;", 'attend': "&amp;C100&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <f>"db.insert({'employee_id': "&amp;B101&amp;", 'day_of_week':"&amp;A101&amp;", 'attend': "&amp;C101&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <f>"db.insert({'employee_id': "&amp;B102&amp;", 'day_of_week':"&amp;A102&amp;", 'attend': "&amp;C102&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <f>"db.insert({'employee_id': "&amp;B103&amp;", 'day_of_week':"&amp;A103&amp;", 'attend': "&amp;C103&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <f>"db.insert({'employee_id': "&amp;B104&amp;", 'day_of_week':"&amp;A104&amp;", 'attend': "&amp;C104&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <f>"db.insert({'employee_id': "&amp;B105&amp;", 'day_of_week':"&amp;A105&amp;", 'attend': "&amp;C105&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="str">
+        <f>"db.insert({'employee_id': "&amp;B106&amp;", 'day_of_week':"&amp;A106&amp;", 'attend': "&amp;C106&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" s="4">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <f>"db.insert({'employee_id': "&amp;B107&amp;", 'day_of_week':"&amp;A107&amp;", 'attend': "&amp;C107&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <f>"db.insert({'employee_id': "&amp;B108&amp;", 'day_of_week':"&amp;A108&amp;", 'attend': "&amp;C108&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" s="4">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <f>"db.insert({'employee_id': "&amp;B109&amp;", 'day_of_week':"&amp;A109&amp;", 'attend': "&amp;C109&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <f>"db.insert({'employee_id': "&amp;B110&amp;", 'day_of_week':"&amp;A110&amp;", 'attend': "&amp;C110&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <f>"db.insert({'employee_id': "&amp;B111&amp;", 'day_of_week':"&amp;A111&amp;", 'attend': "&amp;C111&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="str">
+        <f>"db.insert({'employee_id': "&amp;B112&amp;", 'day_of_week':"&amp;A112&amp;", 'attend': "&amp;C112&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" s="4">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <f>"db.insert({'employee_id': "&amp;B113&amp;", 'day_of_week':"&amp;A113&amp;", 'attend': "&amp;C113&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <f>"db.insert({'employee_id': "&amp;B114&amp;", 'day_of_week':"&amp;A114&amp;", 'attend': "&amp;C114&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" s="4">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="str">
+        <f>"db.insert({'employee_id': "&amp;B115&amp;", 'day_of_week':"&amp;A115&amp;", 'attend': "&amp;C115&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" s="4">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <f>"db.insert({'employee_id': "&amp;B116&amp;", 'day_of_week':"&amp;A116&amp;", 'attend': "&amp;C116&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="str">
+        <f>"db.insert({'employee_id': "&amp;B117&amp;", 'day_of_week':"&amp;A117&amp;", 'attend': "&amp;C117&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <f>"db.insert({'employee_id': "&amp;B118&amp;", 'day_of_week':"&amp;A118&amp;", 'attend': "&amp;C118&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <f>"db.insert({'employee_id': "&amp;B119&amp;", 'day_of_week':"&amp;A119&amp;", 'attend': "&amp;C119&amp;"})"</f>
+        <v>db.insert({'employee_id': 2, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" s="4">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <f>"db.insert({'employee_id': "&amp;B120&amp;", 'day_of_week':"&amp;A120&amp;", 'attend': "&amp;C120&amp;"})"</f>
+        <v>db.insert({'employee_id': 3, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f>"db.insert({'employee_id': "&amp;B121&amp;", 'day_of_week':"&amp;A121&amp;", 'attend': "&amp;C121&amp;"})"</f>
+        <v>db.insert({'employee_id': 4, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" s="4">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <f>"db.insert({'employee_id': "&amp;B122&amp;", 'day_of_week':"&amp;A122&amp;", 'attend': "&amp;C122&amp;"})"</f>
+        <v>db.insert({'employee_id': 5, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123" s="4">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="str">
+        <f>"db.insert({'employee_id': "&amp;B123&amp;", 'day_of_week':"&amp;A123&amp;", 'attend': "&amp;C123&amp;"})"</f>
+        <v>db.insert({'employee_id': 6, 'day_of_week':4, 'attend': 1})</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <f>"db.insert({'employee_id': "&amp;B124&amp;", 'day_of_week':"&amp;A124&amp;", 'attend': "&amp;C124&amp;"})"</f>
+        <v>db.insert({'employee_id': 0, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <f>"db.insert({'employee_id': "&amp;B125&amp;", 'day_of_week':"&amp;A125&amp;", 'attend': "&amp;C125&amp;"})"</f>
+        <v>db.insert({'employee_id': 1, 'day_of_week':4, 'attend': 0})</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="3:4">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="3:4">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="3:4">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="3:4">
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="3:4">
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="3:4">
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="3:4">
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="3:4">
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="3:4">
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="3:4">
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="3:4">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="3:4">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="3:4">
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="3:4">
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="3:4">
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="3:4">
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="3:4">
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="3:4">
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="3:4">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="3:4">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="3:4">
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="3:4">
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="3:4">
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="3:4">
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="3:4">
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="3:4">
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="3:4">
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="3:4">
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="3:4">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="3:4">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="3:4">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="3:4">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="3:4">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="3:4">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="3:4">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="3:4">
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="3:4">
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="3:4">
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="3:4">
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="3:4">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="3:4">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="3:4">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="3:4">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="3:4">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="3:4">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="3:4">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="402" spans="4:4">
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="4:4">
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="4:4">
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" spans="4:4">
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" spans="4:4">
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" spans="4:4">
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="4:4">
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="4:4">
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="4:4">
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="4:4">
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="4:4">
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="4:4">
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" spans="4:4">
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" spans="4:4">
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" spans="4:4">
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" spans="4:4">
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" spans="4:4">
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" spans="4:4">
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" spans="4:4">
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" spans="4:4">
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" spans="4:4">
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" spans="4:4">
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" spans="4:4">
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" spans="4:4">
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" spans="4:4">
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" spans="4:4">
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="4:4">
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" spans="4:4">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="3:4">
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" spans="3:4">
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" spans="3:4">
+      <c r="D435" s="1"/>
+    </row>
+    <row r="446" spans="3:4">
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="3:4">
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="3:4">
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="4"/>
+      <c r="B512" s="4"/>
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="4"/>
+      <c r="B513" s="4"/>
+      <c r="C513" s="5"/>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="4"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="4"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="5"/>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="4"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="5"/>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="4"/>
+      <c r="B517" s="4"/>
+      <c r="C517" s="5"/>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="4"/>
+      <c r="B518" s="4"/>
+      <c r="C518" s="5"/>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="3:4">
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="3:4">
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="3:4">
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="3:4">
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="3:4">
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="3:4">
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="3:4">
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="3:4">
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="3:4">
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="3:4">
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="3:4">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="3:4">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="3:4">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="3:4">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="3:4">
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="3:4">
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="2:3">
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="2:3">
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="2:3">
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="2:3">
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="2:3">
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="2:3">
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="2:3">
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="2:3">
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="2:3">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="2:3">
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="2:3" ht="96">
+      <c r="B555">
+        <v>55</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" ht="83">
+      <c r="B556">
+        <v>56</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" ht="200">
+      <c r="B557">
+        <v>57</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" ht="200">
+      <c r="B558">
+        <v>58</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" ht="83">
+      <c r="B559">
+        <v>59</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" ht="409">
+      <c r="B560">
+        <v>60</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" ht="213">
+      <c r="B561">
+        <v>61</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" ht="187">
+      <c r="B562">
+        <v>62</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" ht="83">
+      <c r="B563">
+        <v>63</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" ht="278">
+      <c r="B564">
+        <v>64</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" ht="135">
+      <c r="B565">
+        <v>65</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" ht="409">
+      <c r="B566">
+        <v>66</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" ht="148">
+      <c r="B567">
+        <v>67</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" ht="96">
+      <c r="B568">
+        <v>68</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" ht="70">
+      <c r="B569">
+        <v>69</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" ht="317">
+      <c r="B570">
+        <v>70</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" ht="109">
+      <c r="B571">
+        <v>71</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" ht="83">
+      <c r="B572">
+        <v>72</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" ht="70">
+      <c r="B573">
+        <v>73</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" ht="343">
+      <c r="B574">
+        <v>74</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" ht="109">
+      <c r="B575">
+        <v>75</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" ht="31">
+      <c r="B576">
+        <v>76</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5" ht="161">
+      <c r="B577">
+        <v>77</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" ht="408">
+      <c r="B578">
+        <v>78</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5" ht="83">
+      <c r="B579">
+        <v>79</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" ht="135">
+      <c r="B580">
+        <v>80</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5">
+      <c r="B588">
+        <v>9</v>
+      </c>
+      <c r="C588">
+        <v>10</v>
+      </c>
+      <c r="E588" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B588&amp;", 'answer_id2': "&amp;C588&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5">
+      <c r="B589">
+        <v>9</v>
+      </c>
+      <c r="C589">
+        <v>10</v>
+      </c>
+      <c r="E589" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B589&amp;", 'answer_id2': "&amp;C589&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5">
+      <c r="B590">
+        <v>9</v>
+      </c>
+      <c r="C590">
+        <v>10</v>
+      </c>
+      <c r="E590" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B590&amp;", 'answer_id2': "&amp;C590&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5">
+      <c r="B591">
+        <v>9</v>
+      </c>
+      <c r="C591">
+        <v>10</v>
+      </c>
+      <c r="E591" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B591&amp;", 'answer_id2': "&amp;C591&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5">
+      <c r="B592">
+        <v>9</v>
+      </c>
+      <c r="C592">
+        <v>10</v>
+      </c>
+      <c r="E592" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B592&amp;", 'answer_id2': "&amp;C592&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5">
+      <c r="B593">
+        <v>9</v>
+      </c>
+      <c r="C593">
+        <v>10</v>
+      </c>
+      <c r="E593" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B593&amp;", 'answer_id2': "&amp;C593&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5">
+      <c r="B594">
+        <v>9</v>
+      </c>
+      <c r="C594">
+        <v>10</v>
+      </c>
+      <c r="E594" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B594&amp;", 'answer_id2': "&amp;C594&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5">
+      <c r="B595">
+        <v>9</v>
+      </c>
+      <c r="C595">
+        <v>10</v>
+      </c>
+      <c r="E595" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B595&amp;", 'answer_id2': "&amp;C595&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5">
+      <c r="B596">
+        <v>9</v>
+      </c>
+      <c r="C596">
+        <v>10</v>
+      </c>
+      <c r="E596" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B596&amp;", 'answer_id2': "&amp;C596&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5">
+      <c r="B597">
+        <v>9</v>
+      </c>
+      <c r="C597">
+        <v>10</v>
+      </c>
+      <c r="E597" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B597&amp;", 'answer_id2': "&amp;C597&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5">
+      <c r="B598">
+        <v>9</v>
+      </c>
+      <c r="C598">
+        <v>10</v>
+      </c>
+      <c r="E598" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B598&amp;", 'answer_id2': "&amp;C598&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5">
+      <c r="B599">
+        <v>9</v>
+      </c>
+      <c r="C599">
+        <v>10</v>
+      </c>
+      <c r="E599" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B599&amp;", 'answer_id2': "&amp;C599&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5">
+      <c r="B600">
+        <v>9</v>
+      </c>
+      <c r="C600">
+        <v>10</v>
+      </c>
+      <c r="E600" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B600&amp;", 'answer_id2': "&amp;C600&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5">
+      <c r="B601">
+        <v>9</v>
+      </c>
+      <c r="C601">
+        <v>10</v>
+      </c>
+      <c r="E601" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B601&amp;", 'answer_id2': "&amp;C601&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5">
+      <c r="B602">
+        <v>9</v>
+      </c>
+      <c r="C602">
+        <v>10</v>
+      </c>
+      <c r="E602" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B602&amp;", 'answer_id2': "&amp;C602&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5">
+      <c r="B603">
+        <v>9</v>
+      </c>
+      <c r="C603">
+        <v>10</v>
+      </c>
+      <c r="E603" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B603&amp;", 'answer_id2': "&amp;C603&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5">
+      <c r="B604">
+        <v>9</v>
+      </c>
+      <c r="C604">
+        <v>10</v>
+      </c>
+      <c r="E604" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B604&amp;", 'answer_id2': "&amp;C604&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5">
+      <c r="B605">
+        <v>9</v>
+      </c>
+      <c r="C605">
+        <v>10</v>
+      </c>
+      <c r="E605" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B605&amp;", 'answer_id2': "&amp;C605&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5">
+      <c r="B606">
+        <v>9</v>
+      </c>
+      <c r="C606">
+        <v>10</v>
+      </c>
+      <c r="E606" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B606&amp;", 'answer_id2': "&amp;C606&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5">
+      <c r="B607">
+        <v>9</v>
+      </c>
+      <c r="C607">
+        <v>10</v>
+      </c>
+      <c r="E607" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B607&amp;", 'answer_id2': "&amp;C607&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5">
+      <c r="B608">
+        <v>9</v>
+      </c>
+      <c r="C608">
+        <v>10</v>
+      </c>
+      <c r="E608" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B608&amp;", 'answer_id2': "&amp;C608&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="609" spans="2:5">
+      <c r="B609">
+        <v>9</v>
+      </c>
+      <c r="C609">
+        <v>10</v>
+      </c>
+      <c r="E609" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B609&amp;", 'answer_id2': "&amp;C609&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="610" spans="2:5">
+      <c r="B610">
+        <v>9</v>
+      </c>
+      <c r="C610">
+        <v>10</v>
+      </c>
+      <c r="E610" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B610&amp;", 'answer_id2': "&amp;C610&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5">
+      <c r="B611">
+        <v>9</v>
+      </c>
+      <c r="C611">
+        <v>11</v>
+      </c>
+      <c r="E611" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B611&amp;", 'answer_id2': "&amp;C611&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="612" spans="2:5">
+      <c r="B612">
+        <v>9</v>
+      </c>
+      <c r="C612">
+        <v>11</v>
+      </c>
+      <c r="E612" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B612&amp;", 'answer_id2': "&amp;C612&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5">
+      <c r="B613">
+        <v>9</v>
+      </c>
+      <c r="C613">
+        <v>11</v>
+      </c>
+      <c r="E613" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B613&amp;", 'answer_id2': "&amp;C613&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5">
+      <c r="B614">
+        <v>9</v>
+      </c>
+      <c r="C614">
+        <v>11</v>
+      </c>
+      <c r="E614" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B614&amp;", 'answer_id2': "&amp;C614&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="615" spans="2:5">
+      <c r="B615">
+        <v>9</v>
+      </c>
+      <c r="C615">
+        <v>11</v>
+      </c>
+      <c r="E615" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B615&amp;", 'answer_id2': "&amp;C615&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="616" spans="2:5">
+      <c r="B616">
+        <v>9</v>
+      </c>
+      <c r="C616">
+        <v>11</v>
+      </c>
+      <c r="E616" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B616&amp;", 'answer_id2': "&amp;C616&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="617" spans="2:5">
+      <c r="B617">
+        <v>9</v>
+      </c>
+      <c r="C617">
+        <v>11</v>
+      </c>
+      <c r="E617" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B617&amp;", 'answer_id2': "&amp;C617&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="618" spans="2:5">
+      <c r="B618">
+        <v>9</v>
+      </c>
+      <c r="C618">
+        <v>11</v>
+      </c>
+      <c r="E618" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B618&amp;", 'answer_id2': "&amp;C618&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="619" spans="2:5">
+      <c r="B619">
+        <v>9</v>
+      </c>
+      <c r="C619">
+        <v>11</v>
+      </c>
+      <c r="E619" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B619&amp;", 'answer_id2': "&amp;C619&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="620" spans="2:5">
+      <c r="B620">
+        <v>9</v>
+      </c>
+      <c r="C620">
+        <v>11</v>
+      </c>
+      <c r="E620" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B620&amp;", 'answer_id2': "&amp;C620&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="621" spans="2:5">
+      <c r="B621">
+        <v>9</v>
+      </c>
+      <c r="C621">
+        <v>11</v>
+      </c>
+      <c r="E621" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B621&amp;", 'answer_id2': "&amp;C621&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="622" spans="2:5">
+      <c r="B622">
+        <v>9</v>
+      </c>
+      <c r="C622">
+        <v>11</v>
+      </c>
+      <c r="E622" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B622&amp;", 'answer_id2': "&amp;C622&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="623" spans="2:5">
+      <c r="B623">
+        <v>9</v>
+      </c>
+      <c r="C623">
+        <v>11</v>
+      </c>
+      <c r="E623" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B623&amp;", 'answer_id2': "&amp;C623&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5">
+      <c r="B624">
+        <v>9</v>
+      </c>
+      <c r="C624">
+        <v>11</v>
+      </c>
+      <c r="E624" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B624&amp;", 'answer_id2': "&amp;C624&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="625" spans="2:5">
+      <c r="B625">
+        <v>9</v>
+      </c>
+      <c r="C625">
+        <v>12</v>
+      </c>
+      <c r="E625" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B625&amp;", 'answer_id2': "&amp;C625&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="626" spans="2:5">
+      <c r="B626">
+        <v>9</v>
+      </c>
+      <c r="C626">
+        <v>12</v>
+      </c>
+      <c r="E626" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B626&amp;", 'answer_id2': "&amp;C626&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5">
+      <c r="B627">
+        <v>9</v>
+      </c>
+      <c r="C627">
+        <v>12</v>
+      </c>
+      <c r="E627" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B627&amp;", 'answer_id2': "&amp;C627&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="628" spans="2:5">
+      <c r="B628">
+        <v>9</v>
+      </c>
+      <c r="C628">
+        <v>12</v>
+      </c>
+      <c r="E628" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B628&amp;", 'answer_id2': "&amp;C628&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5">
+      <c r="B629">
+        <v>9</v>
+      </c>
+      <c r="C629">
+        <v>12</v>
+      </c>
+      <c r="E629" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B629&amp;", 'answer_id2': "&amp;C629&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="630" spans="2:5">
+      <c r="B630">
+        <v>9</v>
+      </c>
+      <c r="C630">
+        <v>12</v>
+      </c>
+      <c r="E630" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B630&amp;", 'answer_id2': "&amp;C630&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="631" spans="2:5">
+      <c r="B631">
+        <v>9</v>
+      </c>
+      <c r="C631">
+        <v>12</v>
+      </c>
+      <c r="E631" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B631&amp;", 'answer_id2': "&amp;C631&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="632" spans="2:5">
+      <c r="B632">
+        <v>9</v>
+      </c>
+      <c r="C632">
+        <v>12</v>
+      </c>
+      <c r="E632" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B632&amp;", 'answer_id2': "&amp;C632&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="633" spans="2:5">
+      <c r="B633">
+        <v>9</v>
+      </c>
+      <c r="C633">
+        <v>12</v>
+      </c>
+      <c r="E633" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B633&amp;", 'answer_id2': "&amp;C633&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="634" spans="2:5">
+      <c r="B634">
+        <v>9</v>
+      </c>
+      <c r="C634">
+        <v>12</v>
+      </c>
+      <c r="E634" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B634&amp;", 'answer_id2': "&amp;C634&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="635" spans="2:5">
+      <c r="B635">
+        <v>9</v>
+      </c>
+      <c r="C635">
+        <v>12</v>
+      </c>
+      <c r="E635" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B635&amp;", 'answer_id2': "&amp;C635&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="636" spans="2:5">
+      <c r="B636">
+        <v>9</v>
+      </c>
+      <c r="C636">
+        <v>12</v>
+      </c>
+      <c r="E636" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B636&amp;", 'answer_id2': "&amp;C636&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="637" spans="2:5">
+      <c r="B637">
+        <v>9</v>
+      </c>
+      <c r="C637">
+        <v>12</v>
+      </c>
+      <c r="E637" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B637&amp;", 'answer_id2': "&amp;C637&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="638" spans="2:5">
+      <c r="B638">
+        <v>9</v>
+      </c>
+      <c r="C638">
+        <v>12</v>
+      </c>
+      <c r="E638" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B638&amp;", 'answer_id2': "&amp;C638&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5">
+      <c r="B639">
+        <v>9</v>
+      </c>
+      <c r="C639">
+        <v>12</v>
+      </c>
+      <c r="E639" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B639&amp;", 'answer_id2': "&amp;C639&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="640" spans="2:5">
+      <c r="B640">
+        <v>9</v>
+      </c>
+      <c r="C640">
+        <v>12</v>
+      </c>
+      <c r="E640" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B640&amp;", 'answer_id2': "&amp;C640&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5">
+      <c r="B641">
+        <v>9</v>
+      </c>
+      <c r="C641">
+        <v>12</v>
+      </c>
+      <c r="E641" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B641&amp;", 'answer_id2': "&amp;C641&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="642" spans="2:5">
+      <c r="B642">
+        <v>9</v>
+      </c>
+      <c r="C642">
+        <v>12</v>
+      </c>
+      <c r="E642" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B642&amp;", 'answer_id2': "&amp;C642&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="651" spans="2:5">
+      <c r="B651">
+        <v>0</v>
+      </c>
+      <c r="C651">
+        <v>9</v>
+      </c>
+      <c r="E651" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B651&amp;", 'answer_id2': "&amp;C651&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="652" spans="2:5">
+      <c r="B652">
+        <v>0</v>
+      </c>
+      <c r="C652">
+        <v>9</v>
+      </c>
+      <c r="E652" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B652&amp;", 'answer_id2': "&amp;C652&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="653" spans="2:5">
+      <c r="B653">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>9</v>
+      </c>
+      <c r="E653" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B653&amp;", 'answer_id2': "&amp;C653&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="654" spans="2:5">
+      <c r="B654">
+        <v>0</v>
+      </c>
+      <c r="C654">
+        <v>9</v>
+      </c>
+      <c r="E654" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B654&amp;", 'answer_id2': "&amp;C654&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="655" spans="2:5">
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>9</v>
+      </c>
+      <c r="E655" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B655&amp;", 'answer_id2': "&amp;C655&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="656" spans="2:5">
+      <c r="B656">
+        <v>0</v>
+      </c>
+      <c r="C656">
+        <v>9</v>
+      </c>
+      <c r="E656" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B656&amp;", 'answer_id2': "&amp;C656&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="657" spans="2:5">
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>9</v>
+      </c>
+      <c r="E657" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B657&amp;", 'answer_id2': "&amp;C657&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="658" spans="2:5">
+      <c r="B658">
+        <v>0</v>
+      </c>
+      <c r="C658">
+        <v>9</v>
+      </c>
+      <c r="E658" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B658&amp;", 'answer_id2': "&amp;C658&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="659" spans="2:5">
+      <c r="B659">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>9</v>
+      </c>
+      <c r="E659" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B659&amp;", 'answer_id2': "&amp;C659&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="660" spans="2:5">
+      <c r="B660">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>9</v>
+      </c>
+      <c r="E660" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B660&amp;", 'answer_id2': "&amp;C660&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="661" spans="2:5">
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>9</v>
+      </c>
+      <c r="E661" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B661&amp;", 'answer_id2': "&amp;C661&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="662" spans="2:5">
+      <c r="B662">
+        <v>0</v>
+      </c>
+      <c r="C662">
+        <v>9</v>
+      </c>
+      <c r="E662" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B662&amp;", 'answer_id2': "&amp;C662&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="663" spans="2:5">
+      <c r="B663">
+        <v>0</v>
+      </c>
+      <c r="C663">
+        <v>9</v>
+      </c>
+      <c r="E663" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B663&amp;", 'answer_id2': "&amp;C663&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="664" spans="2:5">
+      <c r="B664">
+        <v>0</v>
+      </c>
+      <c r="C664">
+        <v>9</v>
+      </c>
+      <c r="E664" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B664&amp;", 'answer_id2': "&amp;C664&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="665" spans="2:5">
+      <c r="B665">
+        <v>0</v>
+      </c>
+      <c r="C665">
+        <v>9</v>
+      </c>
+      <c r="E665" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B665&amp;", 'answer_id2': "&amp;C665&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="666" spans="2:5">
+      <c r="B666">
+        <v>0</v>
+      </c>
+      <c r="C666">
+        <v>9</v>
+      </c>
+      <c r="E666" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B666&amp;", 'answer_id2': "&amp;C666&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="667" spans="2:5">
+      <c r="B667">
+        <v>0</v>
+      </c>
+      <c r="C667">
+        <v>9</v>
+      </c>
+      <c r="E667" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B667&amp;", 'answer_id2': "&amp;C667&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="668" spans="2:5">
+      <c r="B668">
+        <v>0</v>
+      </c>
+      <c r="C668">
+        <v>9</v>
+      </c>
+      <c r="E668" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B668&amp;", 'answer_id2': "&amp;C668&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="669" spans="2:5">
+      <c r="B669">
+        <v>0</v>
+      </c>
+      <c r="C669">
+        <v>9</v>
+      </c>
+      <c r="E669" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B669&amp;", 'answer_id2': "&amp;C669&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="670" spans="2:5">
+      <c r="B670">
+        <v>0</v>
+      </c>
+      <c r="C670">
+        <v>9</v>
+      </c>
+      <c r="E670" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B670&amp;", 'answer_id2': "&amp;C670&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="671" spans="2:5">
+      <c r="B671">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>9</v>
+      </c>
+      <c r="E671" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B671&amp;", 'answer_id2': "&amp;C671&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="672" spans="2:5">
+      <c r="B672">
+        <v>0</v>
+      </c>
+      <c r="C672">
+        <v>9</v>
+      </c>
+      <c r="E672" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B672&amp;", 'answer_id2': "&amp;C672&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="673" spans="2:5">
+      <c r="B673">
+        <v>0</v>
+      </c>
+      <c r="C673">
+        <v>9</v>
+      </c>
+      <c r="E673" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B673&amp;", 'answer_id2': "&amp;C673&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="674" spans="2:5">
+      <c r="B674">
+        <v>0</v>
+      </c>
+      <c r="C674">
+        <v>9</v>
+      </c>
+      <c r="E674" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B674&amp;", 'answer_id2': "&amp;C674&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="675" spans="2:5">
+      <c r="B675">
+        <v>0</v>
+      </c>
+      <c r="C675">
+        <v>9</v>
+      </c>
+      <c r="E675" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B675&amp;", 'answer_id2': "&amp;C675&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="676" spans="2:5">
+      <c r="B676">
+        <v>0</v>
+      </c>
+      <c r="C676">
+        <v>9</v>
+      </c>
+      <c r="E676" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B676&amp;", 'answer_id2': "&amp;C676&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="677" spans="2:5">
+      <c r="B677">
+        <v>0</v>
+      </c>
+      <c r="C677">
+        <v>9</v>
+      </c>
+      <c r="E677" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B677&amp;", 'answer_id2': "&amp;C677&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="678" spans="2:5">
+      <c r="B678">
+        <v>0</v>
+      </c>
+      <c r="C678">
+        <v>9</v>
+      </c>
+      <c r="E678" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B678&amp;", 'answer_id2': "&amp;C678&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="679" spans="2:5">
+      <c r="B679">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>9</v>
+      </c>
+      <c r="E679" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B679&amp;", 'answer_id2': "&amp;C679&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="680" spans="2:5">
+      <c r="B680">
+        <v>0</v>
+      </c>
+      <c r="C680">
+        <v>9</v>
+      </c>
+      <c r="E680" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B680&amp;", 'answer_id2': "&amp;C680&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5">
+      <c r="B681">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>9</v>
+      </c>
+      <c r="E681" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B681&amp;", 'answer_id2': "&amp;C681&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="682" spans="2:5">
+      <c r="B682">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>9</v>
+      </c>
+      <c r="E682" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B682&amp;", 'answer_id2': "&amp;C682&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="683" spans="2:5">
+      <c r="B683">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>9</v>
+      </c>
+      <c r="E683" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B683&amp;", 'answer_id2': "&amp;C683&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="684" spans="2:5">
+      <c r="B684">
+        <v>0</v>
+      </c>
+      <c r="C684">
+        <v>9</v>
+      </c>
+      <c r="E684" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B684&amp;", 'answer_id2': "&amp;C684&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="685" spans="2:5">
+      <c r="B685">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>9</v>
+      </c>
+      <c r="E685" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B685&amp;", 'answer_id2': "&amp;C685&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="686" spans="2:5">
+      <c r="B686">
+        <v>0</v>
+      </c>
+      <c r="C686">
+        <v>9</v>
+      </c>
+      <c r="E686" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B686&amp;", 'answer_id2': "&amp;C686&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="687" spans="2:5">
+      <c r="B687">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>9</v>
+      </c>
+      <c r="E687" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B687&amp;", 'answer_id2': "&amp;C687&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="688" spans="2:5">
+      <c r="B688">
+        <v>0</v>
+      </c>
+      <c r="C688">
+        <v>9</v>
+      </c>
+      <c r="E688" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B688&amp;", 'answer_id2': "&amp;C688&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="689" spans="2:5">
+      <c r="B689">
+        <v>0</v>
+      </c>
+      <c r="C689">
+        <v>9</v>
+      </c>
+      <c r="E689" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B689&amp;", 'answer_id2': "&amp;C689&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="690" spans="2:5">
+      <c r="B690">
+        <v>0</v>
+      </c>
+      <c r="C690">
+        <v>9</v>
+      </c>
+      <c r="E690" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B690&amp;", 'answer_id2': "&amp;C690&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="691" spans="2:5">
+      <c r="B691">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>9</v>
+      </c>
+      <c r="E691" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B691&amp;", 'answer_id2': "&amp;C691&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="692" spans="2:5">
+      <c r="B692">
+        <v>0</v>
+      </c>
+      <c r="C692">
+        <v>9</v>
+      </c>
+      <c r="E692" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B692&amp;", 'answer_id2': "&amp;C692&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="693" spans="2:5">
+      <c r="B693">
+        <v>0</v>
+      </c>
+      <c r="C693">
+        <v>9</v>
+      </c>
+      <c r="E693" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B693&amp;", 'answer_id2': "&amp;C693&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="694" spans="2:5">
+      <c r="B694">
+        <v>0</v>
+      </c>
+      <c r="C694">
+        <v>9</v>
+      </c>
+      <c r="E694" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B694&amp;", 'answer_id2': "&amp;C694&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="695" spans="2:5">
+      <c r="B695">
+        <v>0</v>
+      </c>
+      <c r="C695">
+        <v>9</v>
+      </c>
+      <c r="E695" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B695&amp;", 'answer_id2': "&amp;C695&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="696" spans="2:5">
+      <c r="B696">
+        <v>0</v>
+      </c>
+      <c r="C696">
+        <v>9</v>
+      </c>
+      <c r="E696" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B696&amp;", 'answer_id2': "&amp;C696&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="697" spans="2:5">
+      <c r="B697">
+        <v>0</v>
+      </c>
+      <c r="C697">
+        <v>9</v>
+      </c>
+      <c r="E697" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B697&amp;", 'answer_id2': "&amp;C697&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="698" spans="2:5">
+      <c r="B698">
+        <v>0</v>
+      </c>
+      <c r="C698">
+        <v>9</v>
+      </c>
+      <c r="E698" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B698&amp;", 'answer_id2': "&amp;C698&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="699" spans="2:5">
+      <c r="B699">
+        <v>0</v>
+      </c>
+      <c r="C699">
+        <v>9</v>
+      </c>
+      <c r="E699" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B699&amp;", 'answer_id2': "&amp;C699&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="700" spans="2:5">
+      <c r="B700">
+        <v>0</v>
+      </c>
+      <c r="C700">
+        <v>9</v>
+      </c>
+      <c r="E700" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B700&amp;", 'answer_id2': "&amp;C700&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="701" spans="2:5">
+      <c r="B701">
+        <v>0</v>
+      </c>
+      <c r="C701">
+        <v>9</v>
+      </c>
+      <c r="E701" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B701&amp;", 'answer_id2': "&amp;C701&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="702" spans="2:5">
+      <c r="B702">
+        <v>0</v>
+      </c>
+      <c r="C702">
+        <v>9</v>
+      </c>
+      <c r="E702" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B702&amp;", 'answer_id2': "&amp;C702&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="703" spans="2:5">
+      <c r="B703">
+        <v>0</v>
+      </c>
+      <c r="C703">
+        <v>9</v>
+      </c>
+      <c r="E703" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B703&amp;", 'answer_id2': "&amp;C703&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="704" spans="2:5">
+      <c r="B704">
+        <v>0</v>
+      </c>
+      <c r="C704">
+        <v>9</v>
+      </c>
+      <c r="E704" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B704&amp;", 'answer_id2': "&amp;C704&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="705" spans="2:5">
+      <c r="B705">
+        <v>0</v>
+      </c>
+      <c r="C705">
+        <v>9</v>
+      </c>
+      <c r="E705" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B705&amp;", 'answer_id2': "&amp;C705&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="706" spans="2:5">
+      <c r="B706">
+        <v>0</v>
+      </c>
+      <c r="C706">
+        <v>9</v>
+      </c>
+      <c r="E706" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B706&amp;", 'answer_id2': "&amp;C706&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="707" spans="2:5">
+      <c r="B707">
+        <v>0</v>
+      </c>
+      <c r="C707">
+        <v>9</v>
+      </c>
+      <c r="E707" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B707&amp;", 'answer_id2': "&amp;C707&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="708" spans="2:5">
+      <c r="B708">
+        <v>0</v>
+      </c>
+      <c r="C708">
+        <v>9</v>
+      </c>
+      <c r="E708" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B708&amp;", 'answer_id2': "&amp;C708&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="709" spans="2:5">
+      <c r="B709">
+        <v>0</v>
+      </c>
+      <c r="C709">
+        <v>9</v>
+      </c>
+      <c r="E709" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B709&amp;", 'answer_id2': "&amp;C709&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="710" spans="2:5">
+      <c r="B710">
+        <v>0</v>
+      </c>
+      <c r="C710">
+        <v>9</v>
+      </c>
+      <c r="E710" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B710&amp;", 'answer_id2': "&amp;C710&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="711" spans="2:5">
+      <c r="B711">
+        <v>0</v>
+      </c>
+      <c r="C711">
+        <v>9</v>
+      </c>
+      <c r="E711" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B711&amp;", 'answer_id2': "&amp;C711&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="712" spans="2:5">
+      <c r="B712">
+        <v>0</v>
+      </c>
+      <c r="C712">
+        <v>9</v>
+      </c>
+      <c r="E712" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B712&amp;", 'answer_id2': "&amp;C712&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="713" spans="2:5">
+      <c r="B713">
+        <v>0</v>
+      </c>
+      <c r="C713">
+        <v>9</v>
+      </c>
+      <c r="E713" t="e">
+        <f>"db.insert({'answer_id1': "&amp;B713&amp;", 'answer_id2': "&amp;C713&amp;", 'text': '"&amp;#REF!&amp;"', 'answer_id': "&amp;#REF!&amp;"})"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="714" spans="2:5">
+      <c r="C714" s="3"/>
+    </row>
+    <row r="715" spans="2:5">
+      <c r="C715" s="3"/>
+    </row>
+    <row r="716" spans="2:5">
+      <c r="C716" s="3"/>
+    </row>
+    <row r="717" spans="2:5">
+      <c r="C717" s="3"/>
+    </row>
+    <row r="718" spans="2:5">
+      <c r="C718" s="3"/>
+    </row>
+    <row r="719" spans="2:5">
+      <c r="C719" s="3"/>
+    </row>
+    <row r="720" spans="2:5">
+      <c r="C720" s="3"/>
+    </row>
+    <row r="721" spans="3:3">
+      <c r="C721" s="3"/>
+    </row>
+    <row r="722" spans="3:3">
+      <c r="C722" s="3"/>
+    </row>
+    <row r="723" spans="3:3">
+      <c r="C723" s="3"/>
+    </row>
+    <row r="724" spans="3:3">
+      <c r="C724" s="3"/>
+    </row>
+    <row r="733" spans="3:3">
+      <c r="C733" s="3"/>
+    </row>
+    <row r="734" spans="3:3">
+      <c r="C734" s="3"/>
+    </row>
+    <row r="735" spans="3:3">
+      <c r="C735" s="3"/>
+    </row>
+    <row r="736" spans="3:3">
+      <c r="C736" s="3"/>
+    </row>
+    <row r="737" spans="3:3">
+      <c r="C737" s="3"/>
+    </row>
+    <row r="738" spans="3:3">
+      <c r="C738" s="3"/>
+    </row>
+    <row r="739" spans="3:3">
+      <c r="C739" s="3"/>
+    </row>
+    <row r="740" spans="3:3">
+      <c r="C740" s="3"/>
+    </row>
+    <row r="741" spans="3:3">
+      <c r="C741" s="3"/>
+    </row>
+    <row r="742" spans="3:3">
+      <c r="C742" s="3"/>
+    </row>
+    <row r="743" spans="3:3">
+      <c r="C743" s="3"/>
+    </row>
+    <row r="744" spans="3:3">
+      <c r="C744" s="3"/>
+    </row>
+    <row r="745" spans="3:3">
+      <c r="C745" s="3"/>
+    </row>
+    <row r="746" spans="3:3">
+      <c r="C746" s="3"/>
+    </row>
+    <row r="747" spans="3:3">
+      <c r="C747" s="3"/>
+    </row>
+    <row r="748" spans="3:3">
+      <c r="C748" s="3"/>
+    </row>
+    <row r="749" spans="3:3">
+      <c r="C749" s="3"/>
+    </row>
+    <row r="750" spans="3:3">
+      <c r="C750" s="3"/>
+    </row>
+    <row r="751" spans="3:3">
+      <c r="C751" s="3"/>
+    </row>
+    <row r="752" spans="3:3">
+      <c r="C752" s="3"/>
+    </row>
+    <row r="753" spans="3:3">
+      <c r="C753" s="3"/>
+    </row>
+    <row r="754" spans="3:3">
+      <c r="C754" s="3"/>
+    </row>
+    <row r="755" spans="3:3">
+      <c r="C755" s="3"/>
+    </row>
+    <row r="756" spans="3:3">
+      <c r="C756" s="3"/>
+    </row>
+    <row r="757" spans="3:3">
+      <c r="C757" s="3"/>
+    </row>
+    <row r="758" spans="3:3">
+      <c r="C758" s="3"/>
+    </row>
+    <row r="759" spans="3:3">
+      <c r="C759" s="3"/>
+    </row>
+    <row r="760" spans="3:3">
+      <c r="C760" s="3"/>
+    </row>
+    <row r="761" spans="3:3">
+      <c r="C761" s="3"/>
+    </row>
+    <row r="762" spans="3:3">
+      <c r="C762" s="3"/>
+    </row>
+    <row r="763" spans="3:3">
+      <c r="C763" s="3"/>
+    </row>
+    <row r="764" spans="3:3">
+      <c r="C764" s="3"/>
+    </row>
+    <row r="765" spans="3:3">
+      <c r="C765" s="3"/>
+    </row>
+    <row r="766" spans="3:3">
+      <c r="C766" s="3"/>
+    </row>
+    <row r="767" spans="3:3">
+      <c r="C767" s="3"/>
+    </row>
+    <row r="768" spans="3:3">
+      <c r="C768" s="3"/>
+    </row>
+    <row r="769" spans="3:3">
+      <c r="C769" s="3"/>
+    </row>
+    <row r="770" spans="3:3">
+      <c r="C770" s="3"/>
+    </row>
+    <row r="771" spans="3:3">
+      <c r="C771" s="3"/>
+    </row>
+    <row r="772" spans="3:3">
+      <c r="C772" s="3"/>
+    </row>
+    <row r="773" spans="3:3">
+      <c r="C773" s="3"/>
+    </row>
+    <row r="774" spans="3:3">
+      <c r="C774" s="3"/>
+    </row>
+    <row r="775" spans="3:3">
+      <c r="C775" s="3"/>
+    </row>
+    <row r="776" spans="3:3">
+      <c r="C776" s="3"/>
+    </row>
+    <row r="777" spans="3:3">
+      <c r="C777" s="3"/>
+    </row>
+    <row r="778" spans="3:3">
+      <c r="C778" s="3"/>
+    </row>
+    <row r="779" spans="3:3">
+      <c r="C779" s="3"/>
+    </row>
+    <row r="780" spans="3:3">
+      <c r="C780" s="3"/>
+    </row>
+    <row r="781" spans="3:3">
+      <c r="C781" s="3"/>
+    </row>
+    <row r="782" spans="3:3">
+      <c r="C782" s="3"/>
+    </row>
+    <row r="783" spans="3:3">
+      <c r="C783" s="3"/>
+    </row>
+    <row r="784" spans="3:3">
+      <c r="C784" s="3"/>
+    </row>
+    <row r="785" spans="3:3">
+      <c r="C785" s="3"/>
+    </row>
+    <row r="786" spans="3:3">
+      <c r="C786" s="3"/>
+    </row>
+    <row r="787" spans="3:3">
+      <c r="C787" s="3"/>
+    </row>
+    <row r="788" spans="3:3">
+      <c r="C788" s="3"/>
+    </row>
+    <row r="789" spans="3:3">
+      <c r="C789" s="3"/>
+    </row>
+    <row r="790" spans="3:3">
+      <c r="C790" s="3"/>
+    </row>
+    <row r="791" spans="3:3">
+      <c r="C791" s="3"/>
+    </row>
+    <row r="792" spans="3:3">
+      <c r="C792" s="3"/>
+    </row>
+    <row r="793" spans="3:3">
+      <c r="C793" s="1"/>
+    </row>
+    <row r="794" spans="3:3">
+      <c r="C794" s="3"/>
+    </row>
+    <row r="795" spans="3:3">
+      <c r="C795" s="3"/>
+    </row>
+    <row r="796" spans="3:3">
+      <c r="C796" s="3"/>
+    </row>
+    <row r="797" spans="3:3">
+      <c r="C797" s="3"/>
+    </row>
+    <row r="798" spans="3:3">
+      <c r="C798" s="3"/>
+    </row>
+    <row r="799" spans="3:3">
+      <c r="C799" s="3"/>
+    </row>
+    <row r="800" spans="3:3">
+      <c r="C800" s="3"/>
+    </row>
+    <row r="801" spans="3:3">
+      <c r="C801" s="3"/>
+    </row>
+    <row r="802" spans="3:3">
+      <c r="C802" s="3"/>
+    </row>
+    <row r="803" spans="3:3">
+      <c r="C803" s="3"/>
+    </row>
+    <row r="804" spans="3:3">
+      <c r="C804" s="3"/>
+    </row>
+    <row r="805" spans="3:3">
+      <c r="C805" s="3"/>
+    </row>
+    <row r="806" spans="3:3">
+      <c r="C806" s="3"/>
+    </row>
+    <row r="807" spans="3:3">
+      <c r="C807" s="3"/>
+    </row>
+    <row r="808" spans="3:3">
+      <c r="C808" s="3"/>
+    </row>
+    <row r="809" spans="3:3">
+      <c r="C809" s="3"/>
+    </row>
+    <row r="810" spans="3:3">
+      <c r="C810" s="3"/>
+    </row>
+    <row r="811" spans="3:3">
+      <c r="C811" s="3"/>
+    </row>
+    <row r="812" spans="3:3">
+      <c r="C812" s="3"/>
+    </row>
+    <row r="813" spans="3:3">
+      <c r="C813" s="3"/>
+    </row>
+    <row r="814" spans="3:3">
+      <c r="C814" s="3"/>
+    </row>
+    <row r="815" spans="3:3">
+      <c r="C815" s="3"/>
+    </row>
+    <row r="816" spans="3:3">
+      <c r="C816" s="3"/>
+    </row>
+    <row r="817" spans="3:3">
+      <c r="C817" s="3"/>
+    </row>
+    <row r="818" spans="3:3">
+      <c r="C818" s="1"/>
+    </row>
+    <row r="819" spans="3:3">
+      <c r="C819" s="3"/>
+    </row>
+    <row r="820" spans="3:3">
+      <c r="C820" s="3"/>
+    </row>
+    <row r="821" spans="3:3">
+      <c r="C821" s="3"/>
+    </row>
+    <row r="822" spans="3:3">
+      <c r="C822" s="3"/>
+    </row>
+    <row r="823" spans="3:3">
+      <c r="C823" s="3"/>
+    </row>
+    <row r="824" spans="3:3">
+      <c r="C824" s="3"/>
+    </row>
+    <row r="825" spans="3:3">
+      <c r="C825" s="3"/>
+    </row>
+    <row r="826" spans="3:3">
+      <c r="C826" s="3"/>
+    </row>
+    <row r="827" spans="3:3">
+      <c r="C827" s="3"/>
+    </row>
+    <row r="828" spans="3:3">
+      <c r="C828" s="3"/>
+    </row>
+    <row r="829" spans="3:3">
+      <c r="C829" s="3"/>
+    </row>
+    <row r="830" spans="3:3">
+      <c r="C830" s="3"/>
+    </row>
+    <row r="831" spans="3:3">
+      <c r="C831" s="3"/>
+    </row>
+    <row r="832" spans="3:3">
+      <c r="C832" s="1"/>
+    </row>
+    <row r="833" spans="3:3">
+      <c r="C833" s="3"/>
+    </row>
+    <row r="834" spans="3:3">
+      <c r="C834" s="3"/>
+    </row>
+    <row r="835" spans="3:3">
+      <c r="C835" s="3"/>
+    </row>
+    <row r="836" spans="3:3">
+      <c r="C836" s="3"/>
+    </row>
+    <row r="837" spans="3:3">
+      <c r="C837" s="3"/>
+    </row>
+    <row r="838" spans="3:3">
+      <c r="C838" s="3"/>
+    </row>
+    <row r="839" spans="3:3">
+      <c r="C839" s="3"/>
+    </row>
+    <row r="840" spans="3:3">
+      <c r="C840" s="3"/>
+    </row>
+    <row r="841" spans="3:3">
+      <c r="C841" s="3"/>
+    </row>
+    <row r="842" spans="3:3">
+      <c r="C842" s="3"/>
+    </row>
+    <row r="843" spans="3:3">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844" spans="3:3">
+      <c r="C844" s="3"/>
+    </row>
+    <row r="845" spans="3:3">
+      <c r="C845" s="3"/>
+    </row>
+    <row r="846" spans="3:3">
+      <c r="C846" s="3"/>
+    </row>
+    <row r="847" spans="3:3">
+      <c r="C847" s="3"/>
+    </row>
+    <row r="848" spans="3:3">
+      <c r="C848" s="3"/>
+    </row>
+    <row r="849" spans="3:3">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850" spans="3:3">
+      <c r="C850" s="3"/>
+    </row>
+    <row r="851" spans="3:3">
+      <c r="C851" s="3"/>
+    </row>
+    <row r="852" spans="3:3">
+      <c r="C852" s="3"/>
+    </row>
+    <row r="853" spans="3:3">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854" spans="3:3">
+      <c r="C854" s="3"/>
+    </row>
+    <row r="855" spans="3:3">
+      <c r="C855" s="3"/>
+    </row>
+    <row r="856" spans="3:3">
+      <c r="C856" s="3"/>
+    </row>
+    <row r="857" spans="3:3">
+      <c r="C857" s="3"/>
+    </row>
+    <row r="858" spans="3:3">
+      <c r="C858" s="3"/>
+    </row>
+    <row r="859" spans="3:3">
+      <c r="C859" s="3"/>
+    </row>
+    <row r="860" spans="3:3">
+      <c r="C860" s="3"/>
+    </row>
+    <row r="861" spans="3:3">
+      <c r="C861" s="3"/>
+    </row>
+    <row r="862" spans="3:3">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863" spans="3:3">
+      <c r="C863" s="3"/>
+    </row>
+    <row r="864" spans="3:3">
+      <c r="C864" s="3"/>
+    </row>
+    <row r="865" spans="3:3">
+      <c r="C865" s="3"/>
+    </row>
+    <row r="866" spans="3:3">
+      <c r="C866" s="3"/>
+    </row>
+    <row r="867" spans="3:3">
+      <c r="C867" s="3"/>
+    </row>
+    <row r="868" spans="3:3">
+      <c r="C868" s="3"/>
+    </row>
+    <row r="869" spans="3:3">
+      <c r="C869" s="3"/>
+    </row>
+    <row r="870" spans="3:3">
+      <c r="C870" s="3"/>
+    </row>
+    <row r="871" spans="3:3">
+      <c r="C871" s="3"/>
+    </row>
+    <row r="872" spans="3:3">
+      <c r="C872" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>10</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7">
+        <v>16</v>
+      </c>
+      <c r="S4" s="7">
+        <v>17</v>
+      </c>
+      <c r="T4" s="7">
+        <v>18</v>
+      </c>
+      <c r="U4" s="7">
+        <v>19</v>
+      </c>
+      <c r="V4" s="7">
+        <v>20</v>
+      </c>
+      <c r="W4" s="7">
+        <v>21</v>
+      </c>
+      <c r="X4" s="7">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C6:C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:AG10" si="0">SUM(D6:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>